--- a/trains_sr_generated.xlsx
+++ b/trains_sr_generated.xlsx
@@ -22,10 +22,10 @@
     <t xml:space="preserve">Ulaz u stanicu           </t>
   </si>
   <si>
-    <t>VREOCI</t>
-  </si>
-  <si>
-    <t>2.10.2019     04:51</t>
+    <t>SUBOTICA</t>
+  </si>
+  <si>
+    <t>10.10.2019     07:25</t>
   </si>
   <si>
     <t>338027440654.0</t>
